--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1522044.010566562</v>
+        <v>1516755.89507179</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791248</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9445596.698588978</v>
+        <v>9443826.760417722</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>309.5142260915857</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.27064365780167</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -716,10 +716,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>9.11040977685847</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.295474296812</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>97.61153143263792</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>40.02170330568908</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>371.0457265806148</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.2311881380718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.295474296812</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>83.26578655052759</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>103.8812695548171</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>30.20306678617753</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>76.47341699539027</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>58.12843359629906</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>116.876383545772</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>206.4502314363189</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>20.35166949961086</v>
       </c>
       <c r="D11" t="n">
-        <v>30.65341042913616</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.63584681832512</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>71.34086169719414</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>65.87543334372791</v>
@@ -1661,13 +1661,13 @@
         <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>106.4741046921187</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>59.14146526523335</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>55.63584681832461</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>20.32698306571815</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1822,7 +1822,7 @@
         <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.59377642287393</v>
+        <v>6.59377642287537</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277551</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380521</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596462</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.945574312612</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.1738259657498</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973564992</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167825</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196065</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380038</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667949</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644676</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883889</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541094</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658287</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701038784</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.0080032065661</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,7 +3512,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412925</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.9290753658111</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -4034,7 +4034,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879329</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1011.889970284309</v>
+        <v>648.8009820296304</v>
       </c>
       <c r="C2" t="n">
-        <v>1011.889970284309</v>
+        <v>255.625480532561</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.889970284309</v>
+        <v>255.625480532561</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.889970284309</v>
+        <v>255.625480532561</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>242.7714461029428</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>233.64909463135</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>1376.714099066285</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845421</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.78296973775</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297166</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.529637731765</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="V2" t="n">
-        <v>1695.529637731765</v>
+        <v>1049.295727741027</v>
       </c>
       <c r="W2" t="n">
-        <v>1324.530602700052</v>
+        <v>1049.295727741027</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.530602700052</v>
+        <v>1049.295727741027</v>
       </c>
       <c r="Y2" t="n">
-        <v>1324.530602700052</v>
+        <v>1049.295727741027</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813161</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414083</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628886</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737763</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>139.0030972737763</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>139.0030972737763</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>50.70568087437728</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475499</v>
+        <v>50.78821608954405</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>534.3543019878573</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303161</v>
+        <v>1047.956980597545</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313254</v>
+        <v>1561.559659207233</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.78296973775</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475499</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475499</v>
+        <v>352.6951719946212</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>846.3451754386933</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U4" t="n">
-        <v>560.9063836805942</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="V4" t="n">
-        <v>560.9063836805942</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="W4" t="n">
-        <v>277.5759816117719</v>
+        <v>575.8072331779779</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475499</v>
+        <v>575.8072331779779</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475499</v>
+        <v>352.6951719946212</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1985.660557477071</v>
+        <v>1224.909970779224</v>
       </c>
       <c r="C5" t="n">
-        <v>1985.660557477071</v>
+        <v>831.7344692821544</v>
       </c>
       <c r="D5" t="n">
-        <v>1600.219428693739</v>
+        <v>831.7344692821544</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>429.1509443986989</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>416.2969099690807</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>188.1454323035831</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354889</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572951</v>
+        <v>1286.935244793071</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1726.974845685399</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.78296973775</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.78296973775</v>
+        <v>1595.909005810936</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.78296973775</v>
+        <v>1595.909005810936</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.78296973775</v>
+        <v>1224.909970779224</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.78296973775</v>
+        <v>1224.909970779224</v>
       </c>
       <c r="Y5" t="n">
-        <v>1985.660557477071</v>
+        <v>1224.909970779224</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>661.3930085297613</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="M6" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168781</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>992.5035598952154</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>813.1893429707227</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.5541991208424</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="C7" t="n">
-        <v>524.5541991208424</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="D7" t="n">
-        <v>524.5541991208424</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="E7" t="n">
-        <v>524.5541991208424</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338154</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V7" t="n">
-        <v>555.0623473897086</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W7" t="n">
-        <v>555.0623473897086</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X7" t="n">
-        <v>524.5541991208424</v>
+        <v>146.4338220642345</v>
       </c>
       <c r="Y7" t="n">
-        <v>524.5541991208424</v>
+        <v>146.4338220642345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1655.986794363964</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="C8" t="n">
-        <v>1262.811292866895</v>
+        <v>687.4558735466646</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4835,19 +4835,19 @@
         <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2045.439399430908</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2045.439399430908</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2045.439399430908</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1655.986794363964</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.986794363964</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4990,19 +4990,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>830.7030395665587</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>830.7030395665587</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>564.7236943873829</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3932923185605</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
         <v>47.31297010154361</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1684.000063606711</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1362.620837255835</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>800.8136995685217</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>470.02644983126</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572339</v>
+        <v>470.02644983126</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.659969465457</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2954.252057911387</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2954.252057911387</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2655.049298025868</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2337.392968105119</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2012.698534171914</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>327.7888419916216</v>
+        <v>216.7257955609478</v>
       </c>
       <c r="C13" t="n">
-        <v>327.7888419916216</v>
+        <v>118.3169527731308</v>
       </c>
       <c r="D13" t="n">
-        <v>327.7888419916216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
         <v>254.915484758189</v>
@@ -5209,10 +5209,10 @@
         <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1424.671165352695</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1260.748388667123</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1047.105872055218</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>852.9228020222359</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W13" t="n">
-        <v>641.3886750996073</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X13" t="n">
-        <v>479.1046280287843</v>
+        <v>368.0415815981106</v>
       </c>
       <c r="Y13" t="n">
-        <v>327.7888419916216</v>
+        <v>216.7257955609478</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880365</v>
+        <v>1374.479701206713</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529489</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654569</v>
@@ -5297,10 +5297,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S14" t="n">
         <v>3011.239105293021</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2751.985177299522</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2751.985177299522</v>
+        <v>2345.52893562587</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.328847378772</v>
+        <v>2027.872605705121</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445568</v>
+        <v>1703.178171771916</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>614.3293658523215</v>
+        <v>160.527970491933</v>
       </c>
       <c r="C16" t="n">
-        <v>515.9205230645047</v>
+        <v>62.11912770411554</v>
       </c>
       <c r="D16" t="n">
-        <v>432.0836851132133</v>
+        <v>62.11912770411554</v>
       </c>
       <c r="E16" t="n">
-        <v>348.3211481186095</v>
+        <v>62.11912770411554</v>
       </c>
       <c r="F16" t="n">
-        <v>262.7914884777763</v>
+        <v>62.11912770411554</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3337097234157</v>
+        <v>62.11912770411554</v>
       </c>
       <c r="H16" t="n">
-        <v>82.65143383110356</v>
+        <v>62.11912770411554</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411554</v>
       </c>
       <c r="J16" t="n">
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027734</v>
@@ -5449,7 +5449,7 @@
         <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457731</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>988.1475398457731</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W16" t="n">
-        <v>776.6134129231446</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3293658523215</v>
+        <v>368.0415815981106</v>
       </c>
       <c r="Y16" t="n">
-        <v>614.3293658523215</v>
+        <v>216.7257955609477</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5519,13 +5519,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,10 +5534,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829236</v>
@@ -5555,10 +5555,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343064</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879441</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296521</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106231</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975435</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099298</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803416</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924071</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
         <v>2132.883732040978</v>
@@ -5771,19 +5771,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,10 +5792,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5835,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462915</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838021</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974529</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6072,13 +6072,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,19 +6227,19 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>606.9665031662631</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6306,22 +6306,22 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1325.82389827615</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1842.344180867131</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2247.965549583528</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
         <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6443,52 +6443,52 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838401</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6534,28 +6534,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>1501.557331157736</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315961</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1015.065931291253</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1670.843902501812</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929713</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404858</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245259</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597519</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407227</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374191</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>143.5810516071543</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>225.4160927170962</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>389.543732590896</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736105</v>
+        <v>575.83531092916</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.58316263189</v>
+        <v>870.6770655353521</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600014</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376593</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.785962625018</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273675</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400704</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045787</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6965,10 +6965,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,10 +6977,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.426580900608</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128481</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511122</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445264</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862344</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>346.0196676966397</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>346.0196676966397</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>973.7913173233209</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N42" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7576,13 +7576,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7631,13 +7631,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
         <v>1740.468202408463</v>
@@ -7822,7 +7822,7 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q46" t="n">
         <v>1098.20216247628</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>637.5111168138442</v>
       </c>
       <c r="N2" t="n">
-        <v>452.8420031504936</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>98.97569223556125</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837493</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>432.9285314844491</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,16 +8216,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>640.3852542562179</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>400.107963440727</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8304,13 +8304,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>258.5795224705161</v>
+        <v>572.6307885465551</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,10 +8936,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>461.3398360504045</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9167,7 +9167,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987036</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,16 +9483,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>187.5973797276328</v>
+        <v>85.37211285416652</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286861</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9720,16 +9720,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101137</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>723.5863546247123</v>
       </c>
       <c r="N30" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210926</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>376.3651575480042</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -11148,13 +11148,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>92.68755888888889</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>297.8137645877559</v>
       </c>
       <c r="D11" t="n">
-        <v>279.8549946716308</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>27.36262275345336</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>58.36874888735006</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>161.1333241166662</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>237.0692670214302</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>56.64177929133174</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>40.35818564884282</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.603837063157698e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>826070.6883055539</v>
+        <v>825168.3668849134</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>826070.6883055539</v>
+        <v>825168.3668849134</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739892.5820438325</v>
+        <v>739892.5820438324</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739892.5820438324</v>
+        <v>739892.5820438325</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>832174.4625872397</v>
+        <v>832174.4625872398</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>832174.4625872399</v>
+        <v>832174.4625872398</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427275</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="C2" t="n">
-        <v>468863.6630427274</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="D2" t="n">
         <v>468863.6630427276</v>
@@ -26323,34 +26323,34 @@
         <v>414333.4609034412</v>
       </c>
       <c r="F2" t="n">
-        <v>414333.4609034412</v>
+        <v>414333.4609034411</v>
       </c>
       <c r="G2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="H2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="I2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="J2" t="n">
-        <v>468863.663042728</v>
+        <v>468863.6630427282</v>
       </c>
       <c r="K2" t="n">
-        <v>468863.663042728</v>
+        <v>468863.6630427279</v>
       </c>
       <c r="L2" t="n">
-        <v>468863.6630427272</v>
+        <v>468863.6630427279</v>
       </c>
       <c r="M2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="N2" t="n">
+        <v>468863.6630427278</v>
+      </c>
+      <c r="O2" t="n">
         <v>468863.6630427276</v>
-      </c>
-      <c r="O2" t="n">
-        <v>468863.6630427275</v>
       </c>
       <c r="P2" t="n">
         <v>468863.6630427275</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.079263797946682e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26430,10 +26430,10 @@
         <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="I4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20159.205691763</v>
+        <v>24209.87769917784</v>
       </c>
       <c r="C6" t="n">
-        <v>202364.1539836188</v>
+        <v>198068.5347332328</v>
       </c>
       <c r="D6" t="n">
-        <v>195772.0926438967</v>
+        <v>188035.803420505</v>
       </c>
       <c r="E6" t="n">
-        <v>136227.5052293484</v>
+        <v>136017.7736826588</v>
       </c>
       <c r="F6" t="n">
-        <v>248350.0667033929</v>
+        <v>248140.3351567033</v>
       </c>
       <c r="G6" t="n">
-        <v>202712.2771987361</v>
+        <v>202712.2771987358</v>
       </c>
       <c r="H6" t="n">
+        <v>250137.6027354177</v>
+      </c>
+      <c r="I6" t="n">
         <v>250137.6027354181</v>
       </c>
-      <c r="I6" t="n">
-        <v>250137.602735418</v>
-      </c>
       <c r="J6" t="n">
-        <v>37095.68513813277</v>
+        <v>43611.97029270627</v>
       </c>
       <c r="K6" t="n">
-        <v>243897.8343326355</v>
+        <v>243897.8343326352</v>
       </c>
       <c r="L6" t="n">
-        <v>188715.2453980136</v>
+        <v>184666.4081875418</v>
       </c>
       <c r="M6" t="n">
-        <v>207936.773275795</v>
+        <v>206885.0782646068</v>
       </c>
       <c r="N6" t="n">
-        <v>250137.602735418</v>
+        <v>250137.6027354182</v>
       </c>
       <c r="O6" t="n">
-        <v>222369.9086926466</v>
+        <v>222369.9086926468</v>
       </c>
       <c r="P6" t="n">
         <v>250137.6027354178</v>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26710,16 +26710,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26753,7 +26753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,25 +26799,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287439</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.97557216269718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>267.5715762713726</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.78297167134905</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626865</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>135.7503298808103</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>240.4753947424451</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>37.98540137626202</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27667,22 +27667,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.294613850533</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626865</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>104.1482203229609</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.04249597330382</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>201.5364522086692</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>305.1133005001087</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>195.0667686734483</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>116.4854777676762</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.636002634529177</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634530513</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634530442</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,10 +29299,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>30.272237659013</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
@@ -29314,7 +29314,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901181</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566557</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>81.10808140893201</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224714</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254168</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>28.0125002648524</v>
-      </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.6129845773342</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,40 +30414,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>28.01250026485357</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634529518</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30648,16 +30648,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30894,10 +30894,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>5.636002634528936</v>
+      </c>
+      <c r="Q46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -32473,25 +32473,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32555,16 +32555,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.129524869426178e-13</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.318102246374109e-13</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.352988490699988e-13</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.237720141233448e-13</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>487.7860652161169</v>
       </c>
       <c r="N2" t="n">
-        <v>303.7235118127095</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.378756902227909</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>340.2409725955602</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>490.6602026584907</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>250.9894721029429</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>173.2074096163494</v>
+        <v>487.2586756923884</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>371.2794891934863</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873225</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36121,25 +36121,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>634.1127774006882</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2252668734662</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594797</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724886</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>131.7547461184307</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>392.8806780907926</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36610,7 +36610,7 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114541997</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272228</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>631.1992325754004</v>
       </c>
       <c r="N30" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114519</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>464.4844572792977</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273763</v>
+        <v>43.49509683159873</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220367</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>76.79385455031236</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476688</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496205</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.46926427500488</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>213.0525346398124</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724877</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835522</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>286.7682222146709</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,13 +37868,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37944,16 +37944,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724871</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644681488</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
